--- a/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.279114847612419</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
         <v>9.679063909009322</v>
       </c>
       <c r="E10" t="n">
-        <v>6.996930913274084</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>9.279114847612419</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
         <v>9.679063909009322</v>
       </c>
       <c r="H10" t="n">
-        <v>6.996930913274084</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.301302554118574</v>
+        <v>6.287968552351388</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.174688057040998</v>
       </c>
       <c r="F11" t="n">
-        <v>5.301302554118574</v>
+        <v>6.287968552351388</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.174688057040998</v>
       </c>
     </row>
     <row r="12">
@@ -833,6 +833,366 @@
       </c>
       <c r="H13" t="n">
         <v>9.487039372285276</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>6.8215328741472</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-4.076514518807957</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.8215328741472</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-4.076514518807957</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.861039577859401</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7.861039577859401</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9.627154266498529</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9.627154266498529</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>9.544464975068614</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9.544464975068614</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5.34765679321374</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.34765679321374</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>8.996621026714481</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.975981461860117</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.996621026714481</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8.975981461860117</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5.606060606060606</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.606060606060606</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>9.833333333333334</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.066666666666666</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.833333333333334</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9.066666666666666</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
@@ -1087,22 +1087,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8.996621026714481</v>
+        <v>9.013916827102713</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8.975981461860117</v>
+        <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>8.996621026714481</v>
+        <v>9.013916827102713</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>8.975981461860117</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>5.606060606060606</v>
+        <v>7.745098039215686</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>5.606060606060606</v>
+        <v>7.745098039215686</v>
       </c>
     </row>
     <row r="24">

--- a/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,7 +850,7 @@
         <v>6.8215328741472</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.076514518807957</v>
+        <v>8.200785479093401</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -859,7 +859,7 @@
         <v>6.8215328741472</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.076514518807957</v>
+        <v>8.200785479093401</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
         <v>9.627154266498529</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>9.627154266498529</v>
@@ -970,7 +970,7 @@
         <v>9.544464975068614</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>9.648297958439279</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -979,7 +979,7 @@
         <v>9.544464975068614</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>9.648297958439279</v>
       </c>
       <c r="H18" t="n">
         <v>10</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>9.633333333333333</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9.633333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1087,19 +1087,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.013916827102713</v>
+        <v>9.257802200547681</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>7.514996645329963</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>9.013916827102713</v>
+        <v>9.257802200547681</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>7.514996645329963</v>
       </c>
       <c r="H22" t="n">
         <v>10</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>7.745098039215686</v>
+        <v>9.006915123073501</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>7.745098039215686</v>
+        <v>9.006915123073501</v>
       </c>
     </row>
     <row r="24">
@@ -1150,7 +1150,7 @@
         <v>9.833333333333334</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="E24" t="n">
         <v>9.066666666666666</v>
@@ -1159,7 +1159,7 @@
         <v>9.833333333333334</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>7.600000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>9.066666666666666</v>
@@ -1193,6 +1193,126 @@
       </c>
       <c r="H25" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9.168420222605778</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.312298892870351</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9.168420222605778</v>
+      </c>
+      <c r="H26" t="n">
+        <v>7.312298892870351</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6.528649544457451</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6.528649544457451</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1210,19 +1210,19 @@
         <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>9.168420222605778</v>
+        <v>9.467552957132071</v>
       </c>
       <c r="E26" t="n">
-        <v>7.312298892870351</v>
+        <v>8.273998141478565</v>
       </c>
       <c r="F26" t="n">
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>9.168420222605778</v>
+        <v>9.467552957132071</v>
       </c>
       <c r="H26" t="n">
-        <v>7.312298892870351</v>
+        <v>8.273998141478565</v>
       </c>
     </row>
     <row r="27">
@@ -1237,22 +1237,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6.528649544457451</v>
+        <v>6.548164219493079</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>5.17825311942959</v>
       </c>
       <c r="F27" t="n">
-        <v>6.528649544457451</v>
+        <v>6.548164219493079</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>5.17825311942959</v>
       </c>
     </row>
     <row r="28">
@@ -1313,6 +1313,366 @@
       </c>
       <c r="H29" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>8.400133181919911</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9.844508576514706</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8.400133181919911</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9.844508576514706</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5.069531358642748</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.167740203972088</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.393931075351743</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.069531358642748</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.167740203972088</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7.393931075351743</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>9.593161418628036</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.4092566053871126</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9.163582005788109</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.593161418628036</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.4092566053871126</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9.163582005788109</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-04-09</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2.936621352670759</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-10.87579343048648</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.382101460342937</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.936621352670759</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-10.87579343048648</v>
+      </c>
+      <c r="H38" t="n">
+        <v>4.382101460342937</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>6.199999999999999</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7.533333333333335</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6.199999999999999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7.533333333333335</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>8.646350007005747</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8.646350007005747</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1567,22 +1567,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.936621352670759</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>-10.87579343048648</v>
+        <v>9.714214272487624</v>
       </c>
       <c r="E38" t="n">
-        <v>4.382101460342937</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>2.936621352670759</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>-10.87579343048648</v>
+        <v>9.714214272487624</v>
       </c>
       <c r="H38" t="n">
-        <v>4.382101460342937</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>7.289721870846894</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>8.76606230146799</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7.289721870846894</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>8.76606230146799</v>
       </c>
     </row>
     <row r="40">
@@ -1630,7 +1630,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="E40" t="n">
         <v>7.533333333333335</v>
@@ -1639,7 +1639,7 @@
         <v>6.199999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="H40" t="n">
         <v>7.533333333333335</v>
@@ -1673,6 +1673,126 @@
       </c>
       <c r="H41" t="n">
         <v>8.646350007005747</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3.638604673052312</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.624185289909666</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.7943254449004812</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.638604673052312</v>
+      </c>
+      <c r="G42" t="n">
+        <v>3.624185289909666</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.7943254449004812</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2.866666666666667</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.866666666666667</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.638604673052312</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>3.624185289909666</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>0.7943254449004812</v>
+        <v>8.60768702189074</v>
       </c>
       <c r="F42" t="n">
-        <v>3.638604673052312</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>3.624185289909666</v>
+        <v>10</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7943254449004812</v>
+        <v>8.60768702189074</v>
       </c>
     </row>
     <row r="43">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>8.753322498518902</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>8.753322498518902</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.066666666666666</v>
       </c>
       <c r="F44" t="n">
         <v>2.866666666666667</v>
@@ -1762,7 +1762,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.066666666666666</v>
       </c>
     </row>
     <row r="45">
@@ -1792,6 +1792,126 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>7.885565571228914</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7.885565571228914</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-04-12</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1720,7 +1720,7 @@
         <v>8.753322498518902</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>7.26358894311511</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>8.753322498518902</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>7.26358894311511</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1807,19 +1807,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7.885565571228914</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>9.819756928173764</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>7.885565571228914</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>9.819756928173764</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>9.709541575264613</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>9.709541575264613</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1867,19 +1867,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>8.266666666666667</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>8.266666666666667</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>8.266666666666667</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>8.266666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -1912,6 +1912,246 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>9.612442812349508</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9.612442812349508</v>
+      </c>
+      <c r="G50" t="n">
+        <v>10</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5.301302554118574</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.301302554118574</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>10</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>-6.248229167291293</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-5.085552858253165</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.483757569245254</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-6.248229167291293</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-5.085552858253165</v>
+      </c>
+      <c r="H54" t="n">
+        <v>2.483757569245254</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
+++ b/data/Firmen/zenline/2025-04-01/Daily_Scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2047,22 +2047,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-6.248229167291293</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>-5.085552858253165</v>
+        <v>9.360439531694247</v>
       </c>
       <c r="E54" t="n">
-        <v>2.483757569245254</v>
+        <v>9.992518303912533</v>
       </c>
       <c r="F54" t="n">
-        <v>-6.248229167291293</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.085552858253165</v>
+        <v>9.360439531694247</v>
       </c>
       <c r="H54" t="n">
-        <v>2.483757569245254</v>
+        <v>9.992518303912533</v>
       </c>
     </row>
     <row r="55">
@@ -2077,22 +2077,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>7.237682737418556</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>8.030303030303031</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>7.237682737418556</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>8.030303030303031</v>
       </c>
     </row>
     <row r="56">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>6.333333333333332</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>6.333333333333332</v>
       </c>
     </row>
     <row r="57">
@@ -2137,21 +2137,1341 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>9.314973592153088</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>8.015832983046099</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>9.314973592153088</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
+        <v>8.015832983046099</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>9.681418817048403</v>
+      </c>
+      <c r="D58" t="n">
+        <v>7.603898890703189</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9.681418817048403</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7.603898890703189</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>5.221166317070459</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9.955729268792183</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5.221166317070459</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>9.955729268792183</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="F60" t="n">
+        <v>8</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5.600000000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>7.630517023959649</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>7.630517023959649</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>8.528927955671115</v>
+      </c>
+      <c r="D62" t="n">
+        <v>7.496928498337878</v>
+      </c>
+      <c r="E62" t="n">
+        <v>6.552067048263881</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8.528927955671115</v>
+      </c>
+      <c r="G62" t="n">
+        <v>7.496928498337878</v>
+      </c>
+      <c r="H62" t="n">
+        <v>6.552067048263881</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9.733333333333333</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="G64" t="n">
+        <v>9.733333333333333</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>6.41516805237174</v>
+      </c>
+      <c r="D66" t="n">
+        <v>9.851227294664072</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10</v>
+      </c>
+      <c r="F66" t="n">
+        <v>6.41516805237174</v>
+      </c>
+      <c r="G66" t="n">
+        <v>9.851227294664072</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>9.306156507492471</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>9.306156507492471</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>10</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2.066666666666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>10</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>2.066666666666666</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>8.080321009671435</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>8.080321009671435</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>9.373372837322931</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.854638091008186</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.781531047720759</v>
+      </c>
+      <c r="F70" t="n">
+        <v>9.373372837322931</v>
+      </c>
+      <c r="G70" t="n">
+        <v>6.854638091008186</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3.781531047720759</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="G72" t="n">
+        <v>10</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>10</v>
+      </c>
+      <c r="D74" t="n">
+        <v>8.614271967209486</v>
+      </c>
+      <c r="E74" t="n">
+        <v>10</v>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="n">
+        <v>8.614271967209486</v>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>8.649244231662223</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>10</v>
+      </c>
+      <c r="F75" t="n">
+        <v>8.649244231662223</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>10</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>10</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>10</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>10</v>
+      </c>
+      <c r="D78" t="n">
+        <v>10</v>
+      </c>
+      <c r="E78" t="n">
+        <v>10</v>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="n">
+        <v>10</v>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>10</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>8.882839427094906</v>
+      </c>
+      <c r="F79" t="n">
+        <v>10</v>
+      </c>
+      <c r="G79" t="n">
+        <v>10</v>
+      </c>
+      <c r="H79" t="n">
+        <v>8.882839427094906</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>10</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="E80" t="n">
+        <v>9.133333333333333</v>
+      </c>
+      <c r="F80" t="n">
+        <v>10</v>
+      </c>
+      <c r="G80" t="n">
+        <v>9.166666666666666</v>
+      </c>
+      <c r="H80" t="n">
+        <v>9.133333333333333</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>9.777968310583709</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>10</v>
+      </c>
+      <c r="F81" t="n">
+        <v>9.777968310583709</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>5.53122301342175</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>8.124474911398282</v>
+      </c>
+      <c r="F82" t="n">
+        <v>5.53122301342175</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>8.124474911398282</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>10</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>10</v>
+      </c>
+      <c r="F84" t="n">
+        <v>10</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>8.64620344330886</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" t="n">
+        <v>8.64620344330886</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>9.719498469228016</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>9.719498469228016</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>5.707961324113163</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>5.707961324113163</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8.833333333333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>8.833333333333334</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-04-22</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>9.767269160711786</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>9.767269160711786</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>9.834019095126141</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>9.834019095126141</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>6.176470588235294</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>6.176470588235294</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>9.206809583858767</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>9.206809583858767</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>10</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>9.55283746818577</v>
+      </c>
+      <c r="F94" t="n">
+        <v>10</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>9.55283746818577</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>7.419819704417741</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>5.270047103012234</v>
+      </c>
+      <c r="F95" t="n">
+        <v>7.419819704417741</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>5.270047103012234</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.3333333333333321</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.3333333333333321</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>abs_activity</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3.565876698068553</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.204870351760572</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3.565876698068553</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>3.204870351760572</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>rel_activity</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>abs_sleep</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>7.266666666666666</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>7.266666666666666</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>rel_sleep</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
         <v>0</v>
       </c>
     </row>
